--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.56121167714773</v>
+        <v>62.30483923174086</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.8658833677488</v>
+        <v>85.24822973235001</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.43868327101161</v>
+        <v>77.11225833335668</v>
       </c>
       <c r="AD2" t="n">
-        <v>41561.21167714773</v>
+        <v>62304.83923174087</v>
       </c>
       <c r="AE2" t="n">
-        <v>56865.8833677488</v>
+        <v>85248.22973235001</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.574465360507549e-06</v>
+        <v>1.280500950813443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>51438.68327101161</v>
+        <v>77112.25833335667</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.4464382339685</v>
+        <v>62.19006578856162</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.70884527934479</v>
+        <v>85.09119164394529</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.29663267736007</v>
+        <v>76.9702077397049</v>
       </c>
       <c r="AD3" t="n">
-        <v>41446.4382339685</v>
+        <v>62190.06578856162</v>
       </c>
       <c r="AE3" t="n">
-        <v>56708.84527934479</v>
+        <v>85091.19164394529</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.635019068676487e-06</v>
+        <v>1.290737855623899e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.654320987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>51296.63267736007</v>
+        <v>76970.2077397049</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.52361127030136</v>
+        <v>60.61940610345295</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.4461927154092</v>
+        <v>82.94214577016581</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.15448590197872</v>
+        <v>75.02626378791341</v>
       </c>
       <c r="AD2" t="n">
-        <v>40523.61127030136</v>
+        <v>60619.40610345294</v>
       </c>
       <c r="AE2" t="n">
-        <v>55446.1927154092</v>
+        <v>82942.14577016581</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.710557503245594e-06</v>
+        <v>1.335307414680202e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.719907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>50154.48590197873</v>
+        <v>75026.26378791341</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.25567678928177</v>
+        <v>56.37113191054807</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.65730175639814</v>
+        <v>77.12946959880635</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.48649962387416</v>
+        <v>69.76834127220441</v>
       </c>
       <c r="AD2" t="n">
-        <v>47255.67678928177</v>
+        <v>56371.13191054807</v>
       </c>
       <c r="AE2" t="n">
-        <v>64657.30175639813</v>
+        <v>77129.46959880635</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.532453507309976e-06</v>
+        <v>1.42530229423882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.105709876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>58486.49962387416</v>
+        <v>69768.34127220442</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.56776998782409</v>
+        <v>57.47569069120005</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.77012438710911</v>
+        <v>78.64077565218787</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.73381777903815</v>
+        <v>71.13541039698306</v>
       </c>
       <c r="AD2" t="n">
-        <v>38567.76998782409</v>
+        <v>57475.69069120005</v>
       </c>
       <c r="AE2" t="n">
-        <v>52770.12438710911</v>
+        <v>78640.77565218788</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.833875901075135e-06</v>
+        <v>1.427162057148296e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.854938271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>47733.81777903815</v>
+        <v>71135.41039698306</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.1800336039763</v>
+        <v>64.6147413375185</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.55380341312143</v>
+        <v>88.40873969916217</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.3928790172189</v>
+        <v>79.97113366474086</v>
       </c>
       <c r="AD2" t="n">
-        <v>47180.0336039763</v>
+        <v>64614.7413375185</v>
       </c>
       <c r="AE2" t="n">
-        <v>64553.80341312142</v>
+        <v>88408.73969916216</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.008219935238723e-06</v>
+        <v>1.373385302132723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.464506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>58392.8790172189</v>
+        <v>79971.13366474086</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.74091712291672</v>
+        <v>61.00698924838024</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.74352016981371</v>
+        <v>83.47245412801665</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.42343684143746</v>
+        <v>75.50596026038357</v>
       </c>
       <c r="AD2" t="n">
-        <v>40740.91712291672</v>
+        <v>61006.98924838025</v>
       </c>
       <c r="AE2" t="n">
-        <v>55743.52016981371</v>
+        <v>83472.45412801664</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.698958370623923e-06</v>
+        <v>1.324591319236119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>50423.43684143746</v>
+        <v>75505.96026038358</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.54803628057208</v>
+        <v>64.78298724641441</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.05732091037179</v>
+        <v>88.63894117419906</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.8483415112231</v>
+        <v>80.17936503409011</v>
       </c>
       <c r="AD2" t="n">
-        <v>47548.03628057208</v>
+        <v>64782.98724641441</v>
       </c>
       <c r="AE2" t="n">
-        <v>65057.32091037178</v>
+        <v>88638.94117419906</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.561046124834638e-06</v>
+        <v>1.31526691955412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.78858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>58848.3415112231</v>
+        <v>80179.36503409011</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.62292756621142</v>
+        <v>59.16609020027251</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.21383753611866</v>
+        <v>80.95365483566273</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.03974497137466</v>
+        <v>73.22755163733414</v>
       </c>
       <c r="AD2" t="n">
-        <v>39622.92756621142</v>
+        <v>59166.09020027251</v>
       </c>
       <c r="AE2" t="n">
-        <v>54213.83753611866</v>
+        <v>80953.65483566273</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.775663005277764e-06</v>
+        <v>1.377127696775929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>49039.74497137466</v>
+        <v>73227.55163733414</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.12142290702615</v>
+        <v>60.0404654401087</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.89590085348038</v>
+        <v>82.15001361351914</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.65671312301129</v>
+        <v>74.30973161253237</v>
       </c>
       <c r="AD2" t="n">
-        <v>40121.42290702615</v>
+        <v>60040.4654401087</v>
       </c>
       <c r="AE2" t="n">
-        <v>54895.90085348039</v>
+        <v>82150.01361351914</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.777049508695494e-06</v>
+        <v>1.356249525738959e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.719907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>49656.71312301129</v>
+        <v>74309.73161253237</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.67250220927276</v>
+        <v>62.26201200240298</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.0181559835933</v>
+        <v>85.18963162776593</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.57642320211632</v>
+        <v>77.05925274963113</v>
       </c>
       <c r="AD2" t="n">
-        <v>41672.50220927276</v>
+        <v>62262.01200240297</v>
       </c>
       <c r="AE2" t="n">
-        <v>57018.15598359329</v>
+        <v>85189.63162776594</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.501558635950555e-06</v>
+        <v>1.275215250497447e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.723765432098765</v>
       </c>
       <c r="AH2" t="n">
-        <v>51576.42320211632</v>
+        <v>77059.25274963112</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.66331942836705</v>
+        <v>62.25282922149727</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.00559169764247</v>
+        <v>85.17706734181505</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.56505803398251</v>
+        <v>77.04788758149729</v>
       </c>
       <c r="AD3" t="n">
-        <v>41663.31942836705</v>
+        <v>62252.82922149727</v>
       </c>
       <c r="AE3" t="n">
-        <v>57005.59169764246</v>
+        <v>85177.06734181504</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.535068534164838e-06</v>
+        <v>1.280911711102404e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.712191358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>51565.05803398251</v>
+        <v>77047.88758149729</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.95603330994648</v>
+        <v>58.08698517768556</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.30136339340326</v>
+        <v>79.47717573700635</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.2143560801718</v>
+        <v>71.89198563160163</v>
       </c>
       <c r="AD2" t="n">
-        <v>38956.03330994648</v>
+        <v>58086.98517768556</v>
       </c>
       <c r="AE2" t="n">
-        <v>53301.36339340326</v>
+        <v>79477.17573700634</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808508774600904e-06</v>
+        <v>1.408058912567261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.827932098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>48214.3560801718</v>
+        <v>71891.98563160162</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.54347637946948</v>
+        <v>56.79528638749665</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.05108185251457</v>
+        <v>77.70981646654199</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.84269790029121</v>
+        <v>70.29330064940548</v>
       </c>
       <c r="AD2" t="n">
-        <v>47543.47637946948</v>
+        <v>56795.28638749664</v>
       </c>
       <c r="AE2" t="n">
-        <v>65051.08185251457</v>
+        <v>77709.81646654199</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.665029705848013e-06</v>
+        <v>1.430049536003121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.001543209876543</v>
       </c>
       <c r="AH2" t="n">
-        <v>58842.6979002912</v>
+        <v>70293.30064940549</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.10624386621669</v>
+        <v>56.07315602126032</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.45284103854532</v>
+        <v>76.72176584131462</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.30155234997072</v>
+        <v>69.39954818911175</v>
       </c>
       <c r="AD2" t="n">
-        <v>47106.2438662167</v>
+        <v>56073.15602126032</v>
       </c>
       <c r="AE2" t="n">
-        <v>64452.84103854531</v>
+        <v>76721.76584131463</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.327604683052948e-06</v>
+        <v>1.409125553952868e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248456790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>58301.55234997072</v>
+        <v>69399.54818911175</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.26201500231678</v>
+        <v>73.98089715650123</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.34841514795184</v>
+        <v>101.2239272963201</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.87095236894066</v>
+        <v>91.56325774385886</v>
       </c>
       <c r="AD2" t="n">
-        <v>57262.01500231678</v>
+        <v>73980.89715650123</v>
       </c>
       <c r="AE2" t="n">
-        <v>78348.41514795183</v>
+        <v>101223.92729632</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.831551292366315e-06</v>
+        <v>1.202815373812678e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.382716049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>70870.95236894066</v>
+        <v>91563.25774385885</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.88924513894151</v>
+        <v>59.62435622474752</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.57822498822832</v>
+        <v>81.58067462761927</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.36935579647706</v>
+        <v>73.79472954037435</v>
       </c>
       <c r="AD2" t="n">
-        <v>39889.24513894151</v>
+        <v>59624.35622474752</v>
       </c>
       <c r="AE2" t="n">
-        <v>54578.22498822832</v>
+        <v>81580.67462761927</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.768993700313082e-06</v>
+        <v>1.364981546192897e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.750771604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>49369.35579647706</v>
+        <v>73794.72954037435</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.26181356907752</v>
+        <v>61.69228625934007</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.4562336677768</v>
+        <v>84.41010773158176</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.06812996345676</v>
+        <v>76.35412552002987</v>
       </c>
       <c r="AD2" t="n">
-        <v>41261.81356907752</v>
+        <v>61692.28625934007</v>
       </c>
       <c r="AE2" t="n">
-        <v>56456.2336677768</v>
+        <v>84410.10773158177</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.580075543233149e-06</v>
+        <v>1.296108443715191e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.716049382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>51068.12996345675</v>
+        <v>76354.12552002986</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.33246037486757</v>
+        <v>61.76293306513013</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.55289574417537</v>
+        <v>84.50676980798077</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.15556674695022</v>
+        <v>76.44156230352347</v>
       </c>
       <c r="AD3" t="n">
-        <v>41332.46037486757</v>
+        <v>61762.93306513014</v>
       </c>
       <c r="AE3" t="n">
-        <v>56552.89574417537</v>
+        <v>84506.76980798077</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574684308849626e-06</v>
+        <v>1.295186602716816e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.719907407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>51155.56674695022</v>
+        <v>76441.56230352347</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.68879997372136</v>
+        <v>93.10258537396278</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.98304645999409</v>
+        <v>127.3870647047844</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.01343641190944</v>
+        <v>115.2294220382617</v>
       </c>
       <c r="AD2" t="n">
-        <v>68688.79997372135</v>
+        <v>93102.58537396278</v>
       </c>
       <c r="AE2" t="n">
-        <v>93983.04645999409</v>
+        <v>127387.0647047844</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.642743404320525e-06</v>
+        <v>9.951537518785731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.698302469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>85013.43641190944</v>
+        <v>115229.4220382617</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.39653532338561</v>
+        <v>57.06768241897541</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.53583356488527</v>
+        <v>78.0825207340758</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.52188734405742</v>
+        <v>70.63043454473974</v>
       </c>
       <c r="AD2" t="n">
-        <v>38396.53532338561</v>
+        <v>57067.68241897541</v>
       </c>
       <c r="AE2" t="n">
-        <v>52535.83356488527</v>
+        <v>78082.52073407581</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.75083295261886e-06</v>
+        <v>1.42803868060614e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.924382716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>47521.88734405742</v>
+        <v>70630.43454473974</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.20010647420855</v>
+        <v>58.54229410144443</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.63531506449307</v>
+        <v>80.10014949330498</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.5164358724779</v>
+        <v>72.45550364694844</v>
       </c>
       <c r="AD2" t="n">
-        <v>39200.10647420855</v>
+        <v>58542.29410144443</v>
       </c>
       <c r="AE2" t="n">
-        <v>53635.31506449307</v>
+        <v>80100.14949330498</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.829725789433439e-06</v>
+        <v>1.398723372289736e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.789351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>48516.4358724779</v>
+        <v>72455.50364694845</v>
       </c>
     </row>
   </sheetData>
